--- a/pcbs/controller_8266/Outputs/2020-08-14/Bill of Materials-controller_8266.xlsx
+++ b/pcbs/controller_8266/Outputs/2020-08-14/Bill of Materials-controller_8266.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\wifi-christmas-tree-lights\pcbs\controller_8266\Outputs\2020-08-14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A3BC1EE-717F-4B5B-95CD-D374E47065F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B4645-48D1-4181-91B0-AD814D4FBA12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="1860" windowWidth="21825" windowHeight="13530" xr2:uid="{46ED7B51-1CF9-48A9-AD2D-1341A5B6A495}"/>
+    <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{46ED7B51-1CF9-48A9-AD2D-1341A5B6A495}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-controller_82" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-controller_82'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Bill of Materials-controller_82'!$B$2:$G$23</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-controller_82'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -47,19 +48,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>MPN</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Voltage</t>
   </si>
   <si>
     <t>Value</t>
@@ -267,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,22 +267,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -313,20 +306,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,518 +673,444 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:7" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>